--- a/CustomLocalization-RU/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/Base HeavyMetal/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="645">
   <si>
     <t>chassisdef_annihilator_ANH-1A.Description.Details</t>
   </si>
@@ -25,7 +25,7 @@
   </si>
   <si>
     <t xml:space="preserve">Originally developed in the final year of the Amaris Civil War as the ultimate fixed position city defense BattleMech, the Annihilator was built as a sign of the military strength of the Star League in Exile. The -1A was armed with four Autocannon/10s and four Medium Lasers. While less accurate than the original -2A, the 1A was still a highly destructive and dangerous 'Mech that no MechWarrior looked forward to engaging.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -56,7 +56,7 @@
   </si>
   <si>
     <t xml:space="preserve">Still a fearsome and powerful design, where the original Annihilator-1A carries a bevy of powerful autocannons, the -1E instead opts for an all-energy weapon loadout. Four Particle Projection Cannons give the Annihilator-1E a brutal and incredibly powerful punch while the Medium Lasers from the -1A are carried over for in-close protection while increasing the armor protection somewhat to mitigate enemy return fire.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -78,7 +78,7 @@
   </si>
   <si>
     <t xml:space="preserve">Originally developed in the final year of the Amaris Civil War as the ultimate fixed position city defense BattleMech, the Annihilator was built as a sign of the military strength of both the Star League in Exile and the newly created Clans.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -106,7 +106,7 @@
   </si>
   <si>
     <t xml:space="preserve">Originally developed in the final year of the Amaris Civil War as the ultimate fixed position city defense BattleMech, the Annihilator was built as a sign of the military strength of both the Star League in Exile and the newly created Clans. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Apollo is designed to be a long range fire support BattleMech. This is accomplished by mounting an engine on the 'Mech that gives it a top speed of only 64.8 kph and eleven and a half tons of armor. The 'Mech was then armed with massive missile launchers which can rain destruction down on an enemy. While the Apollo has less than average speed for a medium 'Mech, if it is employed correctly the Apollo should have nothing to fear from enemy fire; it is fully capable of staying at the edge of the battlefield and laying down suppressive LRM fire.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -189,7 +189,7 @@
   </si>
   <si>
     <t xml:space="preserve">A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.88&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -217,7 +217,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 2K Archer was a modification built for House Kurita in 2856, designed to increase its direct firepower capability and give it more staying power on the battlefield once it had run out of ammunition
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -242,7 +242,7 @@
   </si>
   <si>
     <t xml:space="preserve">A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -261,7 +261,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 2Rb variant of the Archer was built for SLDF Royal units starting in 2752. A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -280,7 +280,7 @@
   </si>
   <si>
     <t xml:space="preserve">A another modification made to allow the Archer to defend itself more easily against an enemy that managed to close range with it. Built for House Steiner in 2915
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -299,7 +299,7 @@
   </si>
   <si>
     <t xml:space="preserve">Carrying a pair of SRM-4s in place of two medium lasers, this was the trademark variant used by the Wolf's Dragoons, which they produced in the assembly plant aboard their space station Hephaestos until its destruction in 3028. It was once stated by Jaime Wolf that all of the Dragoons' Archers were of this variant.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -327,7 +327,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 4M variant of the Archer was built using rediscovered Star League technology. A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -346,7 +346,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Clan Buster upgrade, the Archer 5CS was a Comstar prototype rushed into production specifically to outfit units that would be fighting on Tukayyid. Designed to carry as much firepower as possible, a combination of a 280 rated XL Engine, Endo Steel chassis and DHS free up the tonnage need to mount 4 LRM-15’s with an Artemis IV FCS. A pair of Medium Lasers are retained should enemies close on the Archer.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -374,7 +374,7 @@
   </si>
   <si>
     <t xml:space="preserve">Built by the GKT Enterprise factory on Satalice for the Free Rasalhague Republic, the 5R was introduced in 3050 and bore similarities to the 2K model of the Archer. It carried a pair of FarFire LRM-15 launchers but mounted two Victory Nickel Alloy ER Large Lasers, one in either arm, in place of the medium lasers. It also linked Artemis IV fire control systems to the launchers and utilized twelve double heat sinks to improve waste heat dissipation. Despite being built around an Endo-Steel chassis, these improvements necessitated a decrease in armor protection by two tons.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -399,7 +399,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 5S variant of the Archer, built out of Defiance Industries' massive Hesperus II complex in 3050, was the official variant for the Armed Forces of the Federated Commonwealth. The 5S upgraded the engine to an Edasich Motors 280 XL Engine, cutting the engine's weight in half while retaining the same speed profile. The 5S also reduced the LRM-20 launchers to LRM-15s. This saved weight was used to add two Coventry T4H Streak SRM-2 launchers, one in each arm and fed by two tons of reloads in the side torsos. They also upgraded the four medium lasers to Medium Pulse Lasers. Finally, the 'Mech carried a Doering Electronics Glowworm Narc Missile Beacon launcher in its left torso along with one ton of ammo. This allowed the Archer to tag enemy units with a beacon so that friendly 'Mechs could more easily hit the unit with their own missile weapons. All of the ammunition carried by the 5S was protected by CASE.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -421,7 +421,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 5W was an upgrade of the 2W variant, and was produced for the Wolf's Dragoons by Bowie Industries at Alarion. This was done in an orbital 'Mech repair facility which was converted into a 'Mech assembly line. Introduced in 3050, the 'Mech was upgraded with an XL Engine to save weight and used ten double heat sinks for greater heat dissipation. It retained the two LRM-20 launchers but replaced all other weaponry with one TharHes Blue SRM-4 launchers in each arm and a Doering Electronics Glowworm Narc Missile Beacon launcher in the center torso. The 5W was supplied with four tons of LRM reloads, two tons of SRM reloads, and two tons of Narc reloads, all carried in the CASE-protected side torsos.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -443,7 +443,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Archer 8L is a prototype chassis designed to provide fire support with 2 Arrow IV Launchers loaded with Incendiary Missiles and the newly developed Guardian ECM and Stealth Armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -459,13 +459,13 @@
     <t>chassisdef_archer_ARC-C.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">A Clan-tech retrofit of the standard Star League Defense Force ARC-2R Archer and intended for second-line and solahma troops.
+    <t xml:space="preserve">A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Battle Fists&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">A Clan-tech retrofit of the standard Star League Defense Force ARC-2R Archer and intended for second-line and solahma troops.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -484,7 +484,7 @@
   </si>
   <si>
     <t xml:space="preserve">Keeping the top speed of the ASN-21 as well as its base weapon load of missiles, the ASN-101 is a rare Federated Suns variant that drops two jump jets and a half ton of armor to mount a trio of Small Lasers, giving the ASN-101 a much better close-in punch compared to its progenitor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -512,7 +512,7 @@
   </si>
   <si>
     <t xml:space="preserve">Assassin was designed to complete against the lighter scout mechs like the Wasp and Stinger but is twice as heavy, faster, greater jump range, heavier armor and much more firepower.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -543,7 +543,7 @@
   </si>
   <si>
     <t xml:space="preserve">The -23 variant of the Assassin is an upgrade of the original model using Lostech; originally seen as a standardized field modification, in 3067 new production began at Hellespont 'Mech Works. The SRM-2 has been removed to upgrade the Medium Laser to a Medium Pulse Laser and an Artemis IV fire control system has been added for the LRM-5 launcher. Within the CCAF, TDF and MAF it is largely used as a cheap way to rebuild shattered forces and sees service mostly in green and reserve formations. The Capellans in particular use the -23 as a fire-support unit for pursuit and strike lances, though shortages of Artemis munitions means many are forced to use mine-delivery missiles.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -565,7 +565,7 @@
   </si>
   <si>
     <t xml:space="preserve">A 95 ton Mech, the Bullshark has a mysterious origin. The original model was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Defiance Industries which produced several productions runs, but a lack of interested customers forced the Mech to be sold at cost to the mercenary market. The Bullshark M3 is a heavy brawler, built around a 190 rated Fusion Core and armed with paired AC/10s and AC/5s. Quad Medium Lasers and LRM-5s round out the design."
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Наводящий ужас&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -596,7 +596,7 @@
   </si>
   <si>
     <t xml:space="preserve">A 95 ton Mech, the Bullshark has a mysterious origin. The original model was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Defiance Industries which produced several productions runs, but a lack of interested customers forced the Mech to be sold at cost to the mercenary market. The Bullshark M4 is a fire support design, built around a 285 rated Fusion Core and armed with a pair of Large Lasers and a pair of AC/5’s. An LRM-15 and a pair of Medium Lasers round out the design."
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Наводящий ужас&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -671,7 +671,7 @@
   </si>
   <si>
     <t xml:space="preserve">Entering production in 2519 the FLE-14 Flea was an attempt to create an ultra-light BattleMech. Weighing a mere fifteen tons, it could arguably be regarded as a different 'Mech design than the true Flea. It was capable of a maximum ground speed of nearly 150km/h with a 120 meter jump capability. Its weapons and armor however were very light: Only one ton of armor protected the unit, and the single Medium Laser mounted in the right arm was barely enough to make it a viable battlefield unit.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.94&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -699,7 +699,7 @@
   </si>
   <si>
     <t xml:space="preserve">An expensive mech that is good against other 20 ton mechs and infantry but not able to stand up to any major threat from larger mechs.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.95&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -727,7 +727,7 @@
   </si>
   <si>
     <t xml:space="preserve">Built as part of the Wolf's Dragoons exclusive contract with Earthwerks Incorporated to replenish the Dragoon's losses at the end of the Fourth Succession War, alongside renewed production of original Fleas, the FLE-16 was the first new production model of the extremely rare 'Mech in centuries. The variant remedied the earlier FLE-14's weaknesses by combining incredible speed with additional armor and weaponry on a 20 ton chassis. The engine was upgraded to a GM 180 in order to reach a similar maximum ground speed of nearly 150 km/h. It mounts two Medium Lasers and an Flamer while retaining an armor profile like the earlier FLE-15.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.95&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -755,7 +755,7 @@
   </si>
   <si>
     <t xml:space="preserve">Originally produced exclusively for the Dragoons until the Capellan Confederation acquired the design's blueprints via a Maskirovka raid during the 3040s, the post-Helm Memory Core FLE-17 variant is based on the older FLE-15 model. Since the Dragoons used the Flea in a recon role more than an antipersonnel 'Mech, Earthwerks conceived a new design by incorporating recovered technology. Retaining the design's maximum speed of 97.2 km/h, the addition of an Endo Steelchassis frees up weight for a MASC system that allows the 'Mech's speed to be pushed up to 129.6 km/h in short bursts. The increase of speed is required to ensure survival on the modern battlefield, as the FLE-17 is only clad in a pitiful three tons of Livingston Ceramics armor plating.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -783,7 +783,7 @@
   </si>
   <si>
     <t xml:space="preserve">A very light sniper mech with a very big laser but cannot take a hit.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.95&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -805,7 +805,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Romeo 5000 is built upon a 120-rated Light Fusion Engine and Endo Steel frame, saving weight to carry a center torso mounted Medium Pulse Laser, an SRM-2 in each side torso and twin ER Small Lasers in each arm. Clad in three tons of armor, Romeo 5000 carries two tons of SRM reloads and is fitted with ten double heat sinks.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -833,7 +833,7 @@
   </si>
   <si>
     <t xml:space="preserve">A favourite tool of planetary governments through out the Periphery, the Louse is designed for riot suppression. Capable of dispersing riots with lethal and non lethal options, it works well against civilians and lightly armed vehicles while posing no significant threat to actual battlemechs or military grade vehicles. Dual grenade launchers and a mixed laser package provide the bulk of the firepower, whilst a pair of flare launchers provides additional deterrent and can be used defensively in combat. Spall lined armour provides additional protection against infantry grade weapons and a set of sensors designed specifically for peering through cluttered urban environments round out the package. Often deployed as scouts and support forces; this mech is a common sight amongst the pirate bands who find themselves facing it across the battlefield. Not designed for battle, it is nonetheless pressed into service by desperate militias and governments that lack real battlemechs.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.97&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -861,7 +861,7 @@
   </si>
   <si>
     <t xml:space="preserve">When the Treaty of Taurus was signed, it established the New Colony Region in co-operation between the Magistracy of Canopus and the Taurian Concordat and also created the Colonial Marshals. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -889,7 +889,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Clan Buster upgrade, the Phoenix Hawk 1bC was a Comstar refit built with damaged Phoenix Hawk 1b’s inherited from the 112th Royal Hussar regiment of the SLDF. Powered by a 270 XL Engine and possessing an Endo Steel chassis, the PHX-1bC is armed with an ER Large Laser and a pair of Medium Lasers. A Narc Beacon and 4 tons of ammo allow the Mech to spot for allied artillery and support assets, while a Flamer gives the Mech some anti infantry capability. The 1b’s CASE and Guardian ECM are retained.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -917,7 +917,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Royal Phoenix Hawk or Phoenix Hawk Special was an upgraded model of the stable of the SLDF forces, this model was just beginning testing and deployment before the Exodus.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -945,7 +945,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 1D variant of the Phoenix Hawk was commonly used by the forces of House Davion. Introduced in 2856, it removes both of the machine guns and the ammunition and replaces them with two additional heat sinks. While removing a small amount of the 'Mech's short-range firepower and a powerful set of weapons against infantry, the additional heat sinks made the 1D's heat load more manageable.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -973,7 +973,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Blue Shot Weapons special, the Phoenix Hawk 1GS is a custom order variant based on the STR-3G Stinger. Popular among rookie pilots, the 1GS trades range and fire power for increased survivability and an easier heat curve. Built from salvaged PHX-1D’s, the 1GS strips out the XL Engine and extra DHS. The weapons are replaced with a Large Laser and a Small Laser in each arm, the additional range of the ER’s not being needed in the close quarter fighting of the Arena. Both the primary lasers are mounted in gunpods giving the variant its "Gunslinger" nickname.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -998,7 +998,7 @@
   </si>
   <si>
     <t xml:space="preserve">Based on the PXH-1, this electronic warfare variant introduced in 2599 drops the machine guns and ammunition in favor of a Guardian ECM Suite and another half-ton of armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Phoenix Hawk 2L was one of the first new mechs to be produced under the Long Road initiative. A compete overhaul designed to be compatible with the myriad PXH-1 variants found throughout the Periphery, the redesign takes advantage of Lushan Industries production license for the new ER Large Laser. Mounting this in place of the original Large Laser, the weapons increased heat is balanced by the inclusion of 2 extra heat sinks; with an Endo steel chassis providing the necessary free wieght. Retaining the medium lasers and the Guardian ECM suite, the 2L is a cheap upgrade for anyone fielding a PXH-1 design. Available for export throughout the Periphery, the only constraint to production is the lack of a production facility for the PXH chassis, though Alliance Mech Works has plans to build a dedicated PHX line should the design prove popular. Until then the current output is limited to in-situ conversions of existing mechs and the restoration of battlefield salvage. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1045,7 +1045,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 3D variant of this 'Mech was introduced in 3048, based on the 1D used by Davion forces. It was built out of New Avalon by Archenar BattleMechs as one of a slew of redesigns using recovered lostech. The 'Mech utilized Endo Steel construction techniques and a Extra-Light engine to free up weight and space for a number of improvements, particularly its weaponry. The 'Mech carried a pair of ER Large Lasers and a pair of Medium Pulse Lasers split between both arms. With the machine guns and their ammunition removed, this allowed two additional heat sinks to be added, and all single heat sinks were exchanged for double strength models.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1067,7 +1067,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 3K Phoenix Hawk was another upgrade of the design that used rediscovered technologies, built by Alshain Weapons and GKT Enterprises for House Kurita and the Free Rasalhague Republicrespectively. Introduced in 3050, the engine was upgraded to an XL model, with the saved weight used to upgrade the weapons payload on the 'Mech, taking its cues from the 1K variant. Like the PXH-3D model the 3K carries carries two ER large lasers and two medium Lasers. It also carried twelve double heat sinks to manage the additional waste heat, and the eight tons of standard armor were replaced with the same amount of New Samarkand Royal Ferro-Fibrous armor, improving its survivability.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1089,7 +1089,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 3M variant of the 'Mech was also introduced in 3048, built by Earthwerks Incorporated from their Keystone factory and using upgrades based on rediscovered Star League technology. First, the internal structure of the 'Mech has been redesigned to utilize a 1A Type7 Endo Steel chassis. The engine was then replaced with a GM 270 XL and the heat sinks were upgraded to double heat sinks. This allowed the weapons payload to be changed extensively, with all of the original weapons being stripped from the chassis. In their place the 'Mech carried two Diverse Optics Sunbeam ER Large Lasers as its primary weapons and two Martell Medium Pulse Lasers for close in work, with one of each mounted in either arm. Finally, a MainFire Point Defense Anti-Missile System replaced the right-arm machine gun, with two tons of both AMS and machine gun reloads carried in the CASE-protected left torso. The electronic systems were also replaced with an Achernar Electronics HID-8 comm system and Federated Hunter target-tracking system.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1111,7 +1111,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 3S model of this 'Mech, first deployed in 3042, was another upgrade using rediscovered technology that attempted to make the Phoenix Hawk even more effective for reconnaissance. The engine was upgraded to an ExtraLight version and ten double heat sinks improved heat management. The overall armor protection was increased by one ton and replaced with Lexington Ltd. High Grade Ferro-Fibrous armor. The primary weapon on the 'Mech was a Thunderbolt-12 Large Pulse Laser built into the right arm, though it still retained the two medium lasers and machine guns of the original. Additionally an anti-missile system was mounted on the right arm, with its two tons of ammo (along with two tons of machine gun ammo) protected by CASE in the left torso. Its primary difference from other variants introduced during the time period was the addition of a MASC system, which allowed the 'Mech to reach speeds of up to 129.6 in short bursts.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1133,7 +1133,7 @@
   </si>
   <si>
     <t xml:space="preserve">First introduced by the Terran Hegemony in 2568, the Phoenix Hawk was one of the most well known BattleMechs in the Inner Sphere. The 'Mech began life when Orguss Industries realized that it could reinforce the Stinger chassis to create a larger version, one with the same speed and maneuverability as the Stinger but with superior armor, firepower and electronics. Though not without its own drawbacks, the Phoenix Hawk quickly became the standard by which all other reconnaissance 'Mechs were measured.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1155,7 +1155,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Royal Phoenix Hawk or Phoenix Hawk Special was an upgraded model of the stable of the SLDF forces.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1174,7 +1174,7 @@
   </si>
   <si>
     <t xml:space="preserve">Developed by Clan Goliath Scorpion, the Phoenix Hawk PHX-1-EC was an upgrade of the earlier PHX-1. Designed at the start of the Golden Age, the PHX-1-EC is built around a 270 rated Fusion Core and is armed with an Improved Large Laser. A pair of prototype ER Medium Lasers and an AMS make up the rest of the PHX-1-EC’s weapons.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 1K variant was particularly favored by House Kurita, though when it was introduced in 2603 it represented a departure from the traditional thinking of the Phoenix Hawk. By removing all jump jets from the 'Mech, room is freed up to install three additional heat sinks and another one and a half tons of armor. The machine guns and ammunition have also been removed from the design and replaced with a single Small Laser carried in the center torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1218,7 +1218,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Rifleman II was an upgrade fielded by the SLDF Royals in 2720, adding twenty tons to its overall mass. The Rifleman II used an Endo Steel structure and an XL Engine, and carried a pair of LB-X Autocannon/10s and Large Pulse Lasers, one in each arm, as well as a pair of Medium Lasers, a Beagle Active Probe, and fourteen Double Heat Sinks.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1246,7 +1246,7 @@
   </si>
   <si>
     <t xml:space="preserve">Developed for the Emperor Stefan Amaris's occupying army, the Rifleman III was an experimental prototype which was rushed into service to defend against the invading Star League Defense Force Army led by General Aleksandr Kerensky in 2777. Only a single prototype was produced after years of development, and it was destroyed during the battle for Terra. Used in the role of an ambusher before being destroyed, the 'Mech's Battle ROM would recount that it had downed nine SLDF BattleMechs before it was rendered inoperable by battle damage.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Multi Trac&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Многоцелевой залп&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1274,7 +1274,7 @@
   </si>
   <si>
     <t xml:space="preserve">The first production version of the Rifleman weighed fifty tons and used primitive technology. Each arm carried a single large laser and medium laser. It was protected by eleven and a half tons of Primitive Armor and used a Primitive Engine to reach a top speed of 64km/h. Though it served in the Reunification War, this version of the Rifleman was usually used by militia and second line forces thereafter.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.82&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1302,7 +1302,7 @@
   </si>
   <si>
     <t xml:space="preserve">Introduced in 2556, this version replaced the primitive components with standard armor and engine. The freed space and weight allowed engineers to fit in sixteen heat sinks. The large lasers were removed from the arms and replaced by PPCs, while two more medium lasers were added, one in each side torso. Production of this model continued until the RFL-3N was introduced.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1316,6 +1316,78 @@
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-3C.Description.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The second of two variants designed by Hanse Davion and debuting in 3026, the 3C removes the large lasers and autocannon/5s in order to mount a pair of Autocannon/10s in their place and add an extra ton of armor. Two tons of ammunition for the larger autocannons were carried in the right torso.
+&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The second of two variants designed by Hanse Davion and debuting in 3026, the 3C removes the large lasers and autocannon/5s in order to mount a pair of Autocannon/10s in their place and add an extra ton of armor. Two tons of ammunition for the larger autocannons were carried in the right torso.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3C.StockRole</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3C.YangsThoughts</t>
+  </si>
+  <si>
+    <t>The Rifleman is highly specialized at long-range direct-fire support. It doesn't have much in the way of protection or closer-range weapons, though, so keep it distant and out of harm's way.</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3K.Description.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A weird all-energy weapons based custom variant that tries to cut back on operating costs by using no ammunition. The increased heat means the 'Mech has to carry 7 external heatsinks, reducing the saved costs by enough to make this a very unpopular version by most.
+&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A weird all-energy weapons based custom variant that tries to cut back on operating costs by using no ammunition. The increased heat means the 'Mech has to carry 7 external heatsinks, reducing the saved costs by enough to make this a very unpopular version by most.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3K.StockRole</t>
+  </si>
+  <si>
+    <t>All-Energy Brawler</t>
+  </si>
+  <si>
+    <t>Энерголодка</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3K.YangsThoughts</t>
+  </si>
+  <si>
+    <t>A weird all-energy weapons based custom variant that tries to cut back on operating costs by using no ammunition. The increased heat means the 'Mech has to carry 7 external heatsinks, reducing the saved costs by enough to make this a very unpopular version by most.</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3KH.Description.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom Kell Hounds variant using looted Clan Large Pulse Lasers and LBX/5 Autocannons to achieve battlefield superiority.
+&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom Kell Hounds variant using looted Clan Large Pulse Lasers and LBX/5 Autocannons to achieve battlefield superiority.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3KH.StockRole</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3KH.YangsThoughts</t>
+  </si>
+  <si>
+    <t>Custom Kell Hounds variant using looted Clan Large Pulse Lasers and LBX/5 Autocannons to achieve battlefield superiority.</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3N.Description.Details</t>
   </si>
   <si>
     <t xml:space="preserve">Designed as a medium fire-support platform, the Rifleman was plagued with a variety of problems since its debut and was ill-suited as a front-line combatant.
@@ -1324,88 +1396,26 @@
   </si>
   <si>
     <t xml:space="preserve">Designed as a medium fire-support platform, the Rifleman was plagued with a variety of problems since its debut and was ill-suited as a front-line combatant.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>chassisdef_rifleman_RFL-3C.StockRole</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3C.YangsThoughts</t>
-  </si>
-  <si>
-    <t>The Rifleman is highly specialized at long-range direct-fire support. It doesn't have much in the way of protection or closer-range weapons, though, so keep it distant and out of harm's way.</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3K.Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A weird all-energy weapons based custom variant that tries to cut back on operating costs by using no ammunition. The increased heat means the 'Mech has to carry 7 external heatsinks, reducing the saved costs by enough to make this a very unpopular version by most.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A weird all-energy weapons based custom variant that tries to cut back on operating costs by using no ammunition. The increased heat means the 'Mech has to carry 7 external heatsinks, reducing the saved costs by enough to make this a very unpopular version by most.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3K.StockRole</t>
-  </si>
-  <si>
-    <t>All-Energy Brawler</t>
-  </si>
-  <si>
-    <t>Энерголодка</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3K.YangsThoughts</t>
-  </si>
-  <si>
-    <t>A weird all-energy weapons based custom variant that tries to cut back on operating costs by using no ammunition. The increased heat means the 'Mech has to carry 7 external heatsinks, reducing the saved costs by enough to make this a very unpopular version by most.</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3KH.Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom Kell Hounds variant using looted Clan Large Pulse Lasers and LBX/5 Autocannons to achieve battlefield superiority.
+    <t>chassisdef_rifleman_RFL-3N.StockRole</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3N.YangsThoughts</t>
+  </si>
+  <si>
+    <t>chassisdef_rifleman_RFL-3N_(c).Description.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Clan-tech retrofit of the standard Rifleman, the Rifleman C was used by Clan Jade Falcon second-line garrison forces during the invasion. This field modification removed all Inner Sphere weaponry, without altering any structural components of the original RFL-3N, and instead carried two Clan-tech Large Pulse Lasers and LB 5-X ACs split between the arms.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Custom Kell Hounds variant using looted Clan Large Pulse Lasers and LBX/5 Autocannons to achieve battlefield superiority.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3KH.StockRole</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3KH.YangsThoughts</t>
-  </si>
-  <si>
-    <t>Custom Kell Hounds variant using looted Clan Large Pulse Lasers and LBX/5 Autocannons to achieve battlefield superiority.</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3N.Description.Details</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3N.StockRole</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3N.YangsThoughts</t>
-  </si>
-  <si>
-    <t>chassisdef_rifleman_RFL-3N_(c).Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designed as a medium fire-support platform, the Rifleman was plagued with a variety of problems since its debut and was ill-suited as a front-line combatant.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designed as a medium fire-support platform, the Rifleman was plagued with a variety of problems since its debut and was ill-suited as a front-line combatant.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">A Clan-tech retrofit of the standard Rifleman, the Rifleman C was used by Clan Jade Falcon second-line garrison forces during the invasion. This field modification removed all Inner Sphere weaponry, without altering any structural components of the original RFL-3N, and instead carried two Clan-tech Large Pulse Lasers and LB 5-X ACs split between the arms.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1424,7 +1434,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Kell Hounds found the stock RFL-3N to be very lacking, replacing most of its weaponary with tech aquired during the company's initial battles with the Clans. The resulting RFL-3N-KH was a lot more deadly, mounting twin Clan UAC/5s with four Clan Extended Range Medium Lasers and two A-Pods as complimentary weaponary.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1446,7 +1456,7 @@
   </si>
   <si>
     <t xml:space="preserve">The RFL-3NR brings just some slight changes to the base RFL-3N design. It replaces the two Medium Lasers with a single Small Laser, but instead adds a C3 slave unit, C.A.S.E protection for the AC/5 ammunition and switches to use Double Heat Sinks.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1468,7 +1478,7 @@
   </si>
   <si>
     <t xml:space="preserve">A custom variant used by the Wolf Dragoon's that is heavily focused on its offensive capabilities in an attempt to adress the shortcomings of its outdated predecessors. Each arm mounts an UAC/5 and a ER Large Laser making it a deadly surprise for any 'Mech warriors unaware of the differences compared to the stock versions.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1490,7 +1500,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 4D was one of two variants designed by Hanse Davion; it was intended to compete with the heavier Warhammer. It replaced the autocannon/5s with PPCs and removed the medium lasers, using the freed-up weight to mount an five extra heat sinks. In spite of the extra heat sinks, this model suffered from significant overheat problems.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1518,7 +1528,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 4L was an attempt to make the RFL-4D more useful and increase its survivability. The design replaces the PPCs with a number of Lasers and switches to using double heat sinks. The combination of Endo Steel structure and an XL engine also allowed it to carry several tons more of armor. The variant however underperformed on the battlefield and never reached any success.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1546,7 +1556,7 @@
   </si>
   <si>
     <t xml:space="preserve">The RFL-4R uses the combination of Endo Steel structure and Ferro-Fibrous armor to free enough weight to increase the armoring significantly while still allowing the use of two LB-X AC/5s.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1574,7 +1584,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Clan Buster upgrade, the Rifleman 5CS was a Comstar refit designed with the aim of extending the Rifleman’s battlefield endurance. Replacing the original 240 rated Fusion Core with a larger 300 rated XL Engine increased the Mechs speed and allowed for the installation of additional armour. DHS replaced the original SHS, reducing the chronic overheating issues that plagued the Rifleman, while the AC/5’s were upgraded to a pair of UAC/5’s with 2 tons of ammo. The pair of Large Lasers remain, but the 2 Medium Lasers were removed to make space for the UAC ammo.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1596,7 +1606,7 @@
   </si>
   <si>
     <t xml:space="preserve">A recovered-technology version of the RFL-4D, the 5D was introduced in 3050 for the Federated Commonwealth. Based on the earlier 4D, it replaces the PPCs with ER PPC models and restores the original model's medium lasers to the side torsos. A 240-rated XL engine was used to free up weight for the mounting of seventeen double heat sinks and an increase in armor protection to nine tons. Production of this model was taken up by Kallon Industries on Talon, Trellshire Industires on Twycross and Red Devil Industries on Pandora.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1618,7 +1628,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 5M is another product of the Gray Death Memory Core technology boon, built by Kallon Industries at Thermopolis for the Free Worlds League. Introduced in 3049, it retained the same energy weapons as the original 3N but replaced the standard autocannons with Imperator Ultra models; though the ammunition load remained a single ton, it was moved to the right torso and protected by CASE. Twelve double heat sinks were mounted and another ton of Kallon Royalstar armor was carried. The free weight for all these changes was created by the use of an Hermes 240 XL Engine. One thing which wasn't replaced however were the Garret comms and targeting systems.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1640,7 +1650,7 @@
   </si>
   <si>
     <t xml:space="preserve">A prototype further development of the base Rifleman design created by an Inner Sphere design collective a few years before the Clan invasion. The IIA chassis uses its 20 ton increased carry capacity for a combination of long range energy and ballistic weaponary and uses a C3 slave unit to improve the lance performance.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Встроенный прожектор&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1662,7 +1672,7 @@
   </si>
   <si>
     <t xml:space="preserve">Designed by the same team as the RFL-IIA, this variant uses a pair of LBX/10 Autocannons, twin ER Large Lasers, two leg mounted LRM-5s and a TAG. It never went beyond early prototype stage, as many of the issues of the original Rifleman was inherited.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Встроенный прожектор&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1690,7 +1700,7 @@
   </si>
   <si>
     <t xml:space="preserve">The so-called Stag II incorporated a prototype version of the ER PPC that was roughly comparable to the Clan version of the weapon, though it was slightly less destructive. This upgrade of the large laser necessitated removal of the MASC, though the top speed was upgraded to 119 km/h. Additionally, Ferro-Fibrous weave was incorporated into the armor, though at an overall decrease in protection. The SRMs were removed in favor of an additional Medium Laser, two Medium Pulse Lasers, and two Small Lasers.[2] This gave the 'Mech greater battlefield longevity, though the potential for excessive heat buildup was much greater.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1718,7 +1728,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Stag was built on an Endo Steel frame and powered by an XL Engine. Ten tons of armor provided the 'Mech with the maximum possible protection. The long-range threat from the cavalry 'Mech comes from one ER Large Laser. At close range it is supplemented by paired Medium Lasers and SRM-4s. Two, CASE-protected tons of ammunition gives MechWarriors the flexibility to use different types of munitions, making the Stag a threat to a variety of units. Twelve double heat sinks handles all of the heat generated by the weapons.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1740,7 +1750,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Stealth is a heavy scout 'Mech that is in use by the Federated Suns and the Lyran Alliance. The 'Mech has a GM 315 XL Engine that allows the Stealth to move at speeds of 118.8 kph and the MASC system on board can push the 'Mech to 151.2 kph in short bursts. This amazing mobility is augmented by jump jets which the Stealth can use to jump up to two hundred and ten meters. The Stealth is also outfitted with a Cyclops-Beagle Sensory Active Probe that the Stealth can use to find hidden enemy units.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Sensors&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. сенсоры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1774,7 +1784,7 @@
   </si>
   <si>
     <t xml:space="preserve">The predecessor to the original Flea FLE-4 model, the Trooper TP-1R prototype was built in 2475, by Toddlette Industries, on a primitive chassis and maintained ground speeds of nearly 100 kph.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.75&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1802,7 +1812,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Vulcan is lightly armored at only five tons, though this is typically sufficient when facing infantry forces and its narrow profile makes it a harder target to hit. A cruising speed of 64.8 km/h is enhanced with by six jump jets mounted in the rear of the Vulcan's torso, specially vented to reduce heat build-up in the rear, giving it a jumping range of 180 meters.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1830,7 +1840,7 @@
   </si>
   <si>
     <t xml:space="preserve">The VL-2TR replaces the Flamer in the Right Arm and the external Heat Sink with a C3 slave unit in the head, increasing the Vulcans in-lance performance.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1858,7 +1868,7 @@
   </si>
   <si>
     <t xml:space="preserve">One of the most common of the Vulcan's early variants, the 5T was introduced a year after the original model debuted. It removes the Autocannon/2 and replaces it with three Maxum medium lasers, using the mass saved to add two additional tons of armor. The majority of the Federated Suns' Vulcans were 5T models.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1880,7 +1890,7 @@
   </si>
   <si>
     <t xml:space="preserve">A further update of the -5T, the -6M uses Endo-Steel structure and an XL engine, drops half a ton of the Machine Gun ammunition and switches to Double Heatsinks. As a result the variant is able to replace the Lasers with 4 Medium Pulse Lasers, add a C3 slave unit, increase the amount of armor, upgrade the rating of the engine core to 280 and add an extra Jump Jet.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1908,7 +1918,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 5M Vulcan is an upgrade of the 2T version used by House Marik that makes the 'Mech far more effective in close range combat. The 'Mech uses a Crucis-II Delux Endo Steel chassis and removes the autocannon for a Tronel PPL-20 Large Pulse Laser and also upgrades the Medium Laser to a Tronel XII Medium Pulse Laser. Eleven double heat sinks were also incorporated. This version of the Vulcan began production in 3052 and ceased only with the destruction of Nimakachi's Tematagi plant in 3069.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1936,7 +1946,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 5S Vulcan is a 3050 upgrade of the 2T version used by House Steiner which replaces the standard fusion engine with an extralight engine and also upgrades the armor to Lexington Ltd. High Grade Ferro-Fibrous with CASE to protect itself from ammunition explosions. The inclusion of MASC enables the 5S to move up to 129 km/h in short bursts. Additionally, the Autocannon/2 has been replaced with an Imperator Ultra Autocannon/5.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1968,12 +1978,7 @@
   </si>
   <si>
     <t xml:space="preserve">Originally developed in the final year of the Amaris Civil War as the ultimate fixed position city defense BattleMech, the Annihilator was built as a sign of the military strength of both the Star League in Exile and the newly created Clans.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Originally developed in the final year of the Amaris Civil War as the ultimate fixed position city defense BattleMech, the Annihilator was built as a sign of the military strength of both the Star League in Exile and the newly created Clans.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2028,16 +2033,6 @@
     <t>mechdef_archer_ARC-C.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A contemporary of 'Mechs such as the Thunderbolt and the Banshee, the Archer's primary role was fire support.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_assassin_ASN-101.Description.Details</t>
   </si>
   <si>
@@ -2084,12 +2079,7 @@
   </si>
   <si>
     <t xml:space="preserve">When the Treaty of Taurus was signed, it established the New Colony Region in co-operation between the Magistracy of Canopus and the Taurian Concordat and also created the Colonial Marshals.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the Treaty of Taurus was signed, it established the New Colony Region in co-operation between the Magistracy of Canopus and the Taurian Concordat and also created the Colonial Marshals.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2150,16 +2140,6 @@
     <t>mechdef_rifleman_RFL-3C.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The second of two variants designed by Hanse Davion and debuting in 3026, the 3C removes the large lasers and autocannon/5s in order to mount a pair of Autocannon/10s in their place and add an extra ton of armor. Two tons of ammunition for the larger autocannons were carried in the right torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The second of two variants designed by Hanse Davion and debuting in 3026, the 3C removes the large lasers and autocannon/5s in order to mount a pair of Autocannon/10s in their place and add an extra ton of armor. Two tons of ammunition for the larger autocannons were carried in the right torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_rifleman_RFL-3K.Description.Details</t>
   </si>
   <si>
@@ -2170,16 +2150,6 @@
   </si>
   <si>
     <t>mechdef_rifleman_RFL-3N_(c).Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Clan-tech retrofit of the standard Rifleman, the Rifleman C was used by Clan Jade Falcon second-line garrison forces during the invasion. This field modification removed all Inner Sphere weaponry, without altering any structural components of the original RFL-3N, and instead carried two Clan-tech Large Pulse Lasers and LB 5-X ACs split between the arms.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Clan-tech retrofit of the standard Rifleman, the Rifleman C was used by Clan Jade Falcon second-line garrison forces during the invasion. This field modification removed all Inner Sphere weaponry, without altering any structural components of the original RFL-3N, and instead carried two Clan-tech Large Pulse Lasers and LB 5-X ACs split between the arms.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_rifleman_RFL-3N-KH.Description.Details</t>
@@ -2257,7 +2227,7 @@
   </si>
   <si>
     <t xml:space="preserve">A 95 ton Mech, the Bullshark was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Majesty Metals which produced the Mech in limited quantities. The difficulty in sourcing parts and the hand built nature of each Bullshark would limit it to a mere 2 dozen examples, most of which served with the Magistracy Armed Forces. The unveiling of the Helm Core and subsequent Clan Invasion signalled the end of the Bullshark, with Majesty Metals reallocating resources to more profitable projects. The Bullshark M5 is a Juggernaut, built around a 285 rated Fusion Core and armed with paired SRM-6's and AC/10’s. 4 Medium Lasers round out the design."
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Наводящий ужас&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2282,7 +2252,7 @@
   </si>
   <si>
     <t xml:space="preserve">A 95 ton Mech, the Bullshark was recovered from the wreck of the Jump Ship Dobrev and schematics were later acquired by Majesty Metals which produced the Mech in limited quantities. The difficulty in sourcing parts and the hand built nature of each Bullshark would limit it to a mere 2 dozen examples, most of which served with the Magistracy Armed Forces. The unveiling of the Helm Core and subsequent Clan Invasion signalled the end of the Bullshark, with Majesty Metals reallocating resources to more profitable projects. The Bullshark M6 is a fire support design, built around a 285 rated Fusion Core and armed with paired AC/5's and LRM-15's. 4 Medium Lasers round out the design."
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Наводящий ужас&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2634,13 +2604,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C336" sqref="C336"/>
+    <sheetView tabSelected="1" topLeftCell="A293" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="77.28515625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3667,7 +3639,7 @@
       <c r="A61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -5401,7 +5373,7 @@
       <c r="A163" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>366</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -5555,10 +5527,10 @@
         <v>385</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -5569,7 +5541,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>339</v>
@@ -5586,7 +5558,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>370</v>
@@ -5603,13 +5575,13 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -5620,7 +5592,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>339</v>
@@ -5637,7 +5609,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>370</v>
@@ -5654,13 +5626,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -5671,7 +5643,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>339</v>
@@ -5688,13 +5660,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -5705,13 +5677,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -5722,7 +5694,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>339</v>
@@ -5739,13 +5711,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
@@ -5756,13 +5728,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -5773,7 +5745,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>339</v>
@@ -5790,13 +5762,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -5807,13 +5779,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -5824,13 +5796,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -5841,13 +5813,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -5858,13 +5830,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -5875,13 +5847,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -5892,13 +5864,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -5909,13 +5881,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -5926,13 +5898,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -5943,13 +5915,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -5960,13 +5932,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -5977,7 +5949,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>165</v>
@@ -5994,13 +5966,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -6011,13 +5983,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -6028,7 +6000,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>165</v>
@@ -6045,13 +6017,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -6062,13 +6034,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -6079,7 +6051,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>355</v>
@@ -6096,13 +6068,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -6113,13 +6085,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -6130,7 +6102,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>165</v>
@@ -6147,13 +6119,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -6164,13 +6136,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -6181,13 +6153,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -6198,13 +6170,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -6215,13 +6187,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -6232,13 +6204,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>3</v>
@@ -6249,13 +6221,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>3</v>
@@ -6266,13 +6238,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>3</v>
@@ -6283,13 +6255,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -6300,13 +6272,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -6317,13 +6289,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -6334,13 +6306,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>3</v>
@@ -6351,13 +6323,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -6368,13 +6340,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -6385,13 +6357,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -6402,13 +6374,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -6419,13 +6391,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>3</v>
@@ -6436,13 +6408,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -6453,13 +6425,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -6470,13 +6442,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -6487,13 +6459,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -6504,13 +6476,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -6521,13 +6493,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -6538,13 +6510,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -6555,13 +6527,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -6572,13 +6544,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -6589,13 +6561,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -6606,13 +6578,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -6623,13 +6595,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -6640,13 +6612,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>3</v>
@@ -6657,13 +6629,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -6674,13 +6646,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -6691,13 +6663,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>3</v>
@@ -6708,13 +6680,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -6725,13 +6697,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -6742,13 +6714,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -6759,13 +6731,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -6776,7 +6748,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>1</v>
@@ -6793,7 +6765,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>10</v>
@@ -6810,7 +6782,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>16</v>
@@ -6827,13 +6799,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -6844,7 +6816,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>32</v>
@@ -6861,7 +6833,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>32</v>
@@ -6878,7 +6850,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>32</v>
@@ -6895,7 +6867,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>32</v>
@@ -6912,7 +6884,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>49</v>
@@ -6929,7 +6901,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>57</v>
@@ -6946,7 +6918,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>64</v>
@@ -6963,7 +6935,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>69</v>
@@ -6980,7 +6952,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>74</v>
@@ -6997,7 +6969,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>79</v>
@@ -7014,7 +6986,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>87</v>
@@ -7031,7 +7003,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>92</v>
@@ -7048,7 +7020,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>100</v>
@@ -7065,7 +7037,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>107</v>
@@ -7082,7 +7054,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>113</v>
@@ -7099,7 +7071,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>119</v>
@@ -7116,13 +7088,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>568</v>
+        <v>125</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>569</v>
+        <v>126</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -7133,7 +7105,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>130</v>
@@ -7150,7 +7122,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>138</v>
@@ -7167,7 +7139,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>147</v>
@@ -7184,7 +7156,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>153</v>
@@ -7201,7 +7173,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>162</v>
@@ -7218,7 +7190,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>171</v>
@@ -7235,7 +7207,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>177</v>
@@ -7252,7 +7224,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>183</v>
@@ -7269,7 +7241,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>191</v>
@@ -7286,7 +7258,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>199</v>
@@ -7303,7 +7275,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>207</v>
@@ -7320,7 +7292,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>215</v>
@@ -7337,7 +7309,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>221</v>
@@ -7354,7 +7326,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>229</v>
@@ -7371,13 +7343,13 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>3</v>
@@ -7388,7 +7360,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>245</v>
@@ -7405,7 +7377,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>253</v>
@@ -7422,7 +7394,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>261</v>
@@ -7439,7 +7411,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>269</v>
@@ -7456,7 +7428,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>276</v>
@@ -7473,7 +7445,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>282</v>
@@ -7490,7 +7462,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>289</v>
@@ -7507,7 +7479,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>295</v>
@@ -7524,7 +7496,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>301</v>
@@ -7541,7 +7513,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>307</v>
@@ -7558,7 +7530,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>313</v>
@@ -7575,7 +7547,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>319</v>
@@ -7592,7 +7564,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>324</v>
@@ -7609,7 +7581,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>330</v>
@@ -7626,7 +7598,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>336</v>
@@ -7643,7 +7615,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>344</v>
@@ -7660,7 +7632,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>352</v>
@@ -7677,7 +7649,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>360</v>
@@ -7694,13 +7666,13 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>606</v>
+        <v>366</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>607</v>
+        <v>367</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>3</v>
@@ -7711,7 +7683,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>372</v>
@@ -7728,7 +7700,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>380</v>
@@ -7745,13 +7717,13 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>3</v>
@@ -7762,13 +7734,13 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>612</v>
+        <v>391</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>613</v>
+        <v>392</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>3</v>
@@ -7779,13 +7751,13 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>3</v>
@@ -7796,13 +7768,13 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>3</v>
@@ -7813,13 +7785,13 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>3</v>
@@ -7830,13 +7802,13 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>3</v>
@@ -7847,13 +7819,13 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>3</v>
@@ -7864,13 +7836,13 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>3</v>
@@ -7881,13 +7853,13 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>3</v>
@@ -7898,13 +7870,13 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>3</v>
@@ -7915,13 +7887,13 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>3</v>
@@ -7932,13 +7904,13 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>3</v>
@@ -7949,13 +7921,13 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>3</v>
@@ -7966,13 +7938,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>3</v>
@@ -7983,13 +7955,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>3</v>
@@ -8000,13 +7972,13 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>3</v>
@@ -8017,13 +7989,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>3</v>
@@ -8034,13 +8006,13 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>3</v>
@@ -8051,13 +8023,13 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>3</v>
@@ -8068,13 +8040,13 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>3</v>
@@ -8085,13 +8057,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>3</v>
@@ -8102,13 +8074,13 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>3</v>
@@ -8119,13 +8091,13 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>3</v>
@@ -8136,13 +8108,13 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>3</v>
@@ -8152,66 +8124,66 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>637</v>
+      <c r="A325" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>631</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E325" s="2">
         <v>325</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B326" s="3" t="s">
+      <c r="A326" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E326" s="2">
         <v>326</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>642</v>
+      <c r="A327" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>636</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E327" s="2">
         <v>327</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>644</v>
+      <c r="A328" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E328" s="2">
         <v>328</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B329" s="3" t="s">
+      <c r="A329" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C329" s="4" t="s">
@@ -8222,42 +8194,42 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>648</v>
+      <c r="A330" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E330" s="2">
         <v>330</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>637</v>
+      <c r="A331" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>631</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E331" s="2">
         <v>331</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="B332" s="3" t="s">
+      <c r="A332" s="2" t="s">
         <v>644</v>
       </c>
+      <c r="B332" s="2" t="s">
+        <v>638</v>
+      </c>
       <c r="C332" s="4" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E332" s="2">
         <v>332</v>
